--- a/biology/Médecine/1193_en_santé_et_médecine/1193_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1193_en_santé_et_médecine/1193_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1193_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1193_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1193 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1193_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1193_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'hôpital de Thors, en Champagne, est mentionné pour la première fois dans un acte par lequel « il est donné aux chevaliers du Temple par les seigneurs de Beurville, Aimon, Anscherus et Guillaume[1] ».
-« Fondation d'un premier hospice ou maladrerie » à Arc-en-Barrois, en Champagne [2].
-1192-1193 : fondation de St Mary's Hospital à Strood, dans le comté de Kent en  Angleterre, par Gilbert de Glanville (en), évêque de Rochester[3],[4].
-1193 ou 1194 : une léproserie Saint-Lazare est attestée à Semur, en Auxois[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'hôpital de Thors, en Champagne, est mentionné pour la première fois dans un acte par lequel « il est donné aux chevaliers du Temple par les seigneurs de Beurville, Aimon, Anscherus et Guillaume ».
+« Fondation d'un premier hospice ou maladrerie » à Arc-en-Barrois, en Champagne .
+1192-1193 : fondation de St Mary's Hospital à Strood, dans le comté de Kent en  Angleterre, par Gilbert de Glanville (en), évêque de Rochester,.
+1193 ou 1194 : une léproserie Saint-Lazare est attestée à Semur, en Auxois.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1193_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1193_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le sultan Saladin meurt à Damas,  à l'âge de cinquante-cinq ou cinquante-six ans, et probablement de la typhoïde, selon Stephen Gluckman, maladie contractée par ingestion de Salmonella typhi, qui est cause d'hyperthermie, d'asthénie, de gastralgie, de céphalée et d'anorexie[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le sultan Saladin meurt à Damas,  à l'âge de cinquante-cinq ou cinquante-six ans, et probablement de la typhoïde, selon Stephen Gluckman, maladie contractée par ingestion de Salmonella typhi, qui est cause d'hyperthermie, d'asthénie, de gastralgie, de céphalée et d'anorexie.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1193_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1193_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Entre 1171 et 1193 : fl. Bernard, médecin, auprès de Guilhem VII et Guilhem VIII, seigneurs de Montpellier[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Entre 1171 et 1193 : fl. Bernard, médecin, auprès de Guilhem VII et Guilhem VIII, seigneurs de Montpellier.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1193_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1193_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Entre 1193 et 1206 : Albert le Grand (mort en 1280),  philosophe et théologien, naturaliste et chimiste, auteur de divers ouvrages touchant à la médecine[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Entre 1193 et 1206 : Albert le Grand (mort en 1280),  philosophe et théologien, naturaliste et chimiste, auteur de divers ouvrages touchant à la médecine.</t>
         </is>
       </c>
     </row>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1193_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1193_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,9 +654,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1193 : Al-Sayzari (né à une date inconnue), peut-être médecin à Alep vers 1169, auteur en tout cas d'un traité de hisba intitulé Nihāyat al-rutba fī ṭalab al-ḥisba, « qui comporte de nombreux détails sur la pratique médicale en Syrie à son époque[9] ».
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1193 : Al-Sayzari (né à une date inconnue), peut-être médecin à Alep vers 1169, auteur en tout cas d'un traité de hisba intitulé Nihāyat al-rutba fī ṭalab al-ḥisba, « qui comporte de nombreux détails sur la pratique médicale en Syrie à son époque ».
 </t>
         </is>
       </c>
